--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}o-obs-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-obs-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}us-core-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}o-obs-req-1:The subject element is required and must be provided. {subject.exists()}o-obs-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-karnofsky-performance-status.xlsx
+++ b/StructureDefinition-onconova-karnofsky-performance-status.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
